--- a/biology/Botanique/Golden_Noble/Golden_Noble.xlsx
+++ b/biology/Botanique/Golden_Noble/Golden_Noble.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Golden Noble est le nom d'un cultivar de pommier domestique.
 Nom botanique: Malus domestica Borkh Golden Noble.
@@ -513,7 +525,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Angleterre 1820, semis chanceux.
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Utilisation: pomme à cuire (compote) ou à cidre
 Peau: jaune
@@ -578,9 +594,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Variété diploïde[1], autostérile.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Variété diploïde, autostérile.
 Groupe de floraison: E (4 jours après Golden Delicious)
 Fleurs fécondées par Roter Berlepsch, Fuji, Goldrush, James Grieve, ...
 </t>
@@ -611,7 +629,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tavelure: peu susceptible
 Mildiou: peu susceptible
@@ -643,7 +663,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Peu de succès en dehors de l'Angleterre car le fruit s'effondre à la cuisson.
 Zones de rusticité: 3 à 9
